--- a/Training/TestData.xlsx
+++ b/Training/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F73D2-8263-1B49-B762-AA8F6578516D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076BE0EC-C50F-814A-A6F4-C7A0D44430AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="520" windowWidth="25600" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F608E0-3384-C345-ADD5-796B91ACB542}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -649,7 +651,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -788,7 +790,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>5</v>
@@ -802,7 +804,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>25</v>
@@ -816,7 +818,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
@@ -830,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>25</v>
@@ -844,7 +846,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>5</v>
@@ -858,7 +860,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>25</v>
@@ -872,7 +874,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>5</v>
@@ -886,7 +888,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>25</v>
@@ -900,7 +902,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>5</v>
@@ -914,7 +916,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>25</v>
@@ -928,7 +930,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>5</v>
@@ -942,7 +944,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>25</v>

--- a/Training/TestData.xlsx
+++ b/Training/TestData.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076BE0EC-C50F-814A-A6F4-C7A0D44430AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992E0A9B-AB27-2148-BCF3-6B182B993C63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="520" windowWidth="25600" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Index" sheetId="1" r:id="rId1"/>
-    <sheet name="Shopping" sheetId="3" r:id="rId2"/>
+    <sheet name="Shopping" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
-  <si>
-    <t>ModuleName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
   <si>
     <t>Execute</t>
   </si>
@@ -37,9 +33,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Shopping</t>
   </si>
   <si>
     <t>test_shopping</t>
@@ -100,16 +93,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,12 +161,10 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -191,13 +174,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -541,58 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F608E0-3384-C345-ADD5-796B91ACB542}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -606,351 +542,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1234567890</v>
+      </c>
+      <c r="M2" s="3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3">
+        <v>123456</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1234567890</v>
+      </c>
+      <c r="M3" s="3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="5">
-        <v>123456</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="M2" s="5">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="5">
-        <v>123456</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="M3" s="5">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>4</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>4</v>
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
